--- a/现金流量表/688668.xlsx
+++ b/现金流量表/688668.xlsx
@@ -744,57 +744,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>77740542.77</v>
+        <v>14567441.71</v>
       </c>
       <c r="P2" t="n">
-        <v>170.707163872</v>
+        <v>58.9112450723</v>
       </c>
       <c r="Q2" t="n">
-        <v>243931772.46</v>
+        <v>132449936.58</v>
       </c>
       <c r="R2" t="n">
-        <v>535.6394433482</v>
+        <v>535.6321877931</v>
       </c>
       <c r="S2" t="n">
-        <v>56671647.01</v>
+        <v>41979494.95</v>
       </c>
       <c r="T2" t="n">
-        <v>124.4428683969</v>
+        <v>169.7665495592</v>
       </c>
       <c r="U2" t="n">
-        <v>-50460802.74</v>
+        <v>-82594731.76000001</v>
       </c>
       <c r="V2" t="n">
-        <v>-110.8047386283</v>
+        <v>-334.0159913634</v>
       </c>
       <c r="W2" t="n">
-        <v>109932.49</v>
+        <v>1458305.23</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2413960968</v>
+        <v>5.8974374846</v>
       </c>
       <c r="Y2" t="n">
-        <v>50600735.23</v>
+        <v>40155490.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>111.1120104539</v>
+        <v>162.3902107971</v>
       </c>
       <c r="AA2" t="n">
-        <v>18269038.64</v>
+        <v>43064880.26</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.1162078599</v>
+        <v>174.1558858111</v>
       </c>
       <c r="AC2" t="n">
-        <v>45540293.1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21714.4438516938</v>
-      </c>
+        <v>-24727777.68</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688668.xlsx
+++ b/现金流量表/688668.xlsx
@@ -744,55 +744,57 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>14567441.71</v>
+        <v>29222647.67</v>
       </c>
       <c r="P2" t="n">
-        <v>58.9112450723</v>
+        <v>13869.7235846522</v>
       </c>
       <c r="Q2" t="n">
-        <v>132449936.58</v>
+        <v>177551017.82</v>
       </c>
       <c r="R2" t="n">
-        <v>535.6321877931</v>
+        <v>84269.69271046419</v>
       </c>
       <c r="S2" t="n">
-        <v>41979494.95</v>
+        <v>53941412.48</v>
       </c>
       <c r="T2" t="n">
-        <v>169.7665495592</v>
+        <v>25601.8034132946</v>
       </c>
       <c r="U2" t="n">
-        <v>-82594731.76000001</v>
+        <v>-29846662.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-334.0159913634</v>
+        <v>-14165.8952280513</v>
       </c>
       <c r="W2" t="n">
-        <v>1458305.23</v>
+        <v>310377.55</v>
       </c>
       <c r="X2" t="n">
-        <v>5.8974374846</v>
+        <v>147.3121420754</v>
       </c>
       <c r="Y2" t="n">
-        <v>40155490.3</v>
+        <v>74329537.20999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>162.3902107971</v>
+        <v>35278.4643924026</v>
       </c>
       <c r="AA2" t="n">
-        <v>43064880.26</v>
+        <v>-7453.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1558858111</v>
+        <v>-3.5376646109</v>
       </c>
       <c r="AC2" t="n">
-        <v>-24727777.68</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>-210693.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>99.147946885</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688668.xlsx
+++ b/现金流量表/688668.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>29222647.67</v>
+        <v>77740542.77</v>
       </c>
       <c r="P2" t="n">
-        <v>13869.7235846522</v>
+        <v>170.707163872</v>
       </c>
       <c r="Q2" t="n">
-        <v>177551017.82</v>
+        <v>243931772.46</v>
       </c>
       <c r="R2" t="n">
-        <v>84269.69271046419</v>
+        <v>535.6394433482</v>
       </c>
       <c r="S2" t="n">
-        <v>53941412.48</v>
+        <v>56671647.01</v>
       </c>
       <c r="T2" t="n">
-        <v>25601.8034132946</v>
+        <v>124.4428683969</v>
       </c>
       <c r="U2" t="n">
-        <v>-29846662.96</v>
+        <v>-50460802.74</v>
       </c>
       <c r="V2" t="n">
-        <v>-14165.8952280513</v>
+        <v>-110.8047386283</v>
       </c>
       <c r="W2" t="n">
-        <v>310377.55</v>
+        <v>109932.49</v>
       </c>
       <c r="X2" t="n">
-        <v>147.3121420754</v>
+        <v>0.2413960968</v>
       </c>
       <c r="Y2" t="n">
-        <v>74329537.20999999</v>
+        <v>50600735.23</v>
       </c>
       <c r="Z2" t="n">
-        <v>35278.4643924026</v>
+        <v>111.1120104539</v>
       </c>
       <c r="AA2" t="n">
-        <v>-7453.64</v>
+        <v>18269038.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.5376646109</v>
+        <v>40.1162078599</v>
       </c>
       <c r="AC2" t="n">
-        <v>-210693.8</v>
+        <v>45540293.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>99.147946885</v>
+        <v>21714.4438516938</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
